--- a/Team-Data/2012-13/12-31-2012-13.xlsx
+++ b/Team-Data/2012-13/12-31-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.655</v>
+        <v>0.679</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="P2" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="R2" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="S2" t="n">
         <v>30.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
         <v>23.2</v>
@@ -723,73 +790,73 @@
         <v>14.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -801,10 +868,10 @@
         <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O4" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R4" t="n">
         <v>12.3</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1099,28 +1166,28 @@
         <v>18.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12</v>
       </c>
-      <c r="AF4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1138,52 +1205,52 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW4" t="n">
         <v>26</v>
       </c>
-      <c r="AV4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>25</v>
-      </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.258</v>
+        <v>0.233</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>82.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="N5" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O5" t="n">
         <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>41.5</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.4</v>
+        <v>-9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1308,43 +1375,43 @@
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
@@ -1356,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.552</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80.5</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>0.435</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.798</v>
+        <v>0.804</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
         <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U6" t="n">
         <v>22.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.3</v>
+        <v>92.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,13 +1569,13 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1520,16 +1587,16 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
@@ -1538,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>12</v>
@@ -1547,7 +1614,7 @@
         <v>27</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
         <v>30</v>
@@ -1666,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1693,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
         <v>16</v>
@@ -1708,10 +1775,10 @@
         <v>30</v>
       </c>
       <c r="AV7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>-4.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
@@ -1869,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
@@ -1884,13 +1951,13 @@
         <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>16</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2042,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2087,13 +2154,13 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
         <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2233,10 +2300,10 @@
         <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
         <v>27</v>
@@ -2245,19 +2312,19 @@
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV10" t="n">
         <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX10" t="n">
         <v>14</v>
@@ -2272,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>2.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2415,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.548</v>
+        <v>0.533</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.455</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P12" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
         <v>0.768</v>
       </c>
       <c r="R12" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.2</v>
@@ -2552,22 +2619,22 @@
         <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.8</v>
+        <v>105.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2576,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,13 +2661,13 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>13</v>
@@ -2612,16 +2679,16 @@
         <v>7</v>
       </c>
       <c r="AT12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>26</v>
@@ -2630,16 +2697,16 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.581</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>80.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.343</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.735</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
         <v>12.4</v>
       </c>
       <c r="S13" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U13" t="n">
         <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
         <v>7</v>
@@ -2740,43 +2807,43 @@
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>20</v>
@@ -2785,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>9</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2815,13 +2882,13 @@
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>10.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2976,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2997,7 +3064,7 @@
         <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>2.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3164,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3176,13 +3243,13 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.679</v>
+        <v>0.704</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
         <v>83.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R16" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>9.4</v>
@@ -3277,43 +3344,43 @@
         <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA16" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA16" t="n">
-        <v>20.1</v>
-      </c>
       <c r="AB16" t="n">
-        <v>94.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
       </c>
       <c r="AF16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG16" t="n">
         <v>5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
@@ -3337,16 +3404,16 @@
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3364,10 +3431,10 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.724</v>
+        <v>0.714</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.493</v>
+        <v>0.494</v>
       </c>
       <c r="L17" t="n">
         <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.399</v>
+        <v>0.403</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>8.1</v>
       </c>
       <c r="S17" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="U17" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
@@ -3462,22 +3529,22 @@
         <v>3.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3504,13 +3571,13 @@
         <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3528,10 +3595,10 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>23</v>
@@ -3540,16 +3607,16 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -3683,7 +3750,7 @@
         <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>27</v>
@@ -3695,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3710,10 +3777,10 @@
         <v>15</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3731,7 +3798,7 @@
         <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>1.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -3880,7 +3947,7 @@
         <v>25</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>8</v>
@@ -3889,13 +3956,13 @@
         <v>2</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>12</v>
@@ -3913,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-5.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
         <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>27</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4065,19 +4132,19 @@
         <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>12</v>
       </c>
       <c r="AW20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
         <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4241,10 +4308,10 @@
         <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
         <v>25</v>
@@ -4253,7 +4320,7 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4271,7 +4338,7 @@
         <v>5</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.793</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O22" t="n">
         <v>23.3</v>
       </c>
       <c r="P22" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.847</v>
+        <v>0.846</v>
       </c>
       <c r="R22" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T22" t="n">
         <v>43.4</v>
@@ -4360,10 +4427,10 @@
         <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
@@ -4372,19 +4439,19 @@
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.9</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4411,10 +4478,10 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,16 +4499,16 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW22" t="n">
         <v>13</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,10 +4517,10 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.387</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J23" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M23" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O23" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="P23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R23" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
         <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
         <v>22.7</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -4551,22 +4618,22 @@
         <v>4.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA23" t="n">
         <v>16.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.3</v>
+        <v>92.8</v>
       </c>
       <c r="AC23" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4578,25 +4645,25 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,22 +4675,22 @@
         <v>10</v>
       </c>
       <c r="AR23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU23" t="n">
         <v>6</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
@@ -4632,13 +4699,13 @@
         <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4760,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -4769,16 +4836,16 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4808,19 +4875,19 @@
         <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.344</v>
+        <v>0.355</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
@@ -4870,7 +4937,7 @@
         <v>38.3</v>
       </c>
       <c r="J25" t="n">
-        <v>85.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.449</v>
@@ -4879,7 +4946,7 @@
         <v>6.3</v>
       </c>
       <c r="M25" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N25" t="n">
         <v>0.337</v>
@@ -4888,58 +4955,58 @@
         <v>14.5</v>
       </c>
       <c r="P25" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
         <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T25" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
         <v>13.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X25" t="n">
         <v>5.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
         <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB25" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -4951,13 +5018,13 @@
         <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>20</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
         <v>26</v>
@@ -4969,13 +5036,13 @@
         <v>27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>19</v>
       </c>
       <c r="AS25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4987,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4996,7 +5063,7 @@
         <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5121,7 +5188,7 @@
         <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5130,10 +5197,10 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5160,7 +5227,7 @@
         <v>26</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5169,16 +5236,16 @@
         <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -5294,28 +5361,28 @@
         <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5363,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.758</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.484</v>
       </c>
       <c r="L28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M28" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U28" t="n">
         <v>25.5</v>
@@ -5461,7 +5528,7 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
         <v>17.5</v>
@@ -5470,16 +5537,16 @@
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5509,10 +5576,10 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5545,10 +5612,10 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5676,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5688,19 +5755,19 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>8</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>22</v>
@@ -5715,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5852,19 +5919,19 @@
         <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5885,7 +5952,7 @@
         <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>16</v>
@@ -6076,7 +6143,7 @@
         <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>21</v>
@@ -6088,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-31-2012-13</t>
+          <t>2012-12-31</t>
         </is>
       </c>
     </row>
